--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LEARN\NAM3_HK2\PTUDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LEARN\NAM3_HK2\PTUDWEB\PTUDW-CNTN2014-Nhom10\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HuongDan" sheetId="8" r:id="rId1"/>
@@ -416,10 +416,6 @@
     <t>1412661</t>
   </si>
   <si>
-    <t>Số lần commit trên nhánh master: 29
-Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
-  </si>
-  <si>
     <t>Số lần commit trên nhánh master: 31
 Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
   </si>
@@ -476,6 +472,10 @@
   </si>
   <si>
     <t>Xử lý lỗi ngoại lệ 404.</t>
+  </si>
+  <si>
+    <t>Số lần commit trên nhánh master: 32
+Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
   </si>
 </sst>
 </file>
@@ -1081,14 +1081,14 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,17 +2392,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2439,8 +2439,8 @@
       <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="85" t="s">
-        <v>126</v>
+      <c r="E5" s="83" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2742,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2773,17 +2773,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2820,8 +2820,8 @@
       <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="85" t="s">
-        <v>127</v>
+      <c r="E5" s="83" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3154,17 +3154,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3201,8 +3201,8 @@
       <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="85" t="s">
-        <v>128</v>
+      <c r="E5" s="83" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3887,18 +3887,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="60"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>

--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
   <si>
     <t>Tech01</t>
   </si>
@@ -476,13 +476,16 @@
   <si>
     <t>Số lần commit trên nhánh master: 32
 Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
+  </si>
+  <si>
+    <t> http://hien.nhom10.gomakers.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +623,15 @@
       <sz val="10"/>
       <color rgb="FF4472C4"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -809,7 +821,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -856,8 +868,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1090,8 +1103,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1136,6 +1152,7 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="13" builtinId="5"/>
   </cellStyles>
@@ -2361,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,8 +2740,8 @@
       <c r="D25" s="62">
         <v>1</v>
       </c>
-      <c r="E25" s="68" t="s">
-        <v>71</v>
+      <c r="E25" s="86" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2733,6 +2750,9 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" display="http://hien.nhom10.gomakers.vn/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -2742,7 +2762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3041,7 +3061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -3422,7 +3442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -4126,7 +4146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2.8</v>
       </c>

--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
   <si>
     <t>Tech01</t>
   </si>
@@ -476,9 +476,6 @@
   <si>
     <t>Số lần commit trên nhánh master: 32
 Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
-  </si>
-  <si>
-    <t> http://hien.nhom10.gomakers.vn</t>
   </si>
 </sst>
 </file>
@@ -1097,14 +1094,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2379,7 +2376,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,17 +2406,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2740,9 +2737,7 @@
       <c r="D25" s="62">
         <v>1</v>
       </c>
-      <c r="E25" s="86" t="s">
-        <v>143</v>
-      </c>
+      <c r="E25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2750,9 +2745,6 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" display="http://hien.nhom10.gomakers.vn/"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -2793,17 +2785,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -3174,17 +3166,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3442,7 +3434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -3907,18 +3899,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2.8</v>
       </c>

--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HuongDan" sheetId="8" r:id="rId1"/>
@@ -1866,14 +1866,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" customWidth="1"/>
     <col min="3" max="5" width="9.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
@@ -1889,19 +1889,19 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="79">
         <f>SUM(Table2[1412170])</f>
-        <v>2.4500000000000002</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="D2" s="79">
         <f>SUM(Table2[1412209])/20*8</f>
-        <v>0.98000000000000009</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="E2" s="79">
         <f>SUM(Table2[1412661])/20*8</f>
-        <v>0.84000000000000008</v>
+        <v>1.4</v>
       </c>
       <c r="F2" s="80">
         <f>SUM(Table2[% hoàn tất])/20*8</f>
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -2204,12 +2204,16 @@
       <c r="B21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0.5</v>
+      </c>
       <c r="E21" s="50"/>
       <c r="F21" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,12 +2223,16 @@
       <c r="B22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0.7</v>
+      </c>
       <c r="E22" s="50"/>
       <c r="F22" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,12 +2242,16 @@
       <c r="B23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="50">
+        <v>0.7</v>
+      </c>
       <c r="E23" s="50"/>
       <c r="F23" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,12 +2261,16 @@
       <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="50">
+        <v>0.3</v>
+      </c>
       <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="E24" s="50">
+        <v>0.7</v>
+      </c>
       <c r="F24" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,12 +2280,16 @@
       <c r="B25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="50">
+        <v>0.3</v>
+      </c>
       <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="E25" s="50">
+        <v>0.7</v>
+      </c>
       <c r="F25" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3434,7 +3454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -3539,7 +3559,7 @@
       </c>
       <c r="C1" s="82">
         <f>AVERAGE(Table1[% hoàn thành])</f>
-        <v>0.33333333333333331</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,7 +3774,7 @@
       </c>
       <c r="C20" s="77">
         <f>PhanCong!F21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,7 +3786,7 @@
       </c>
       <c r="C21" s="77">
         <f>PhanCong!F22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,7 +3798,7 @@
       </c>
       <c r="C22" s="77">
         <f>PhanCong!F23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,7 +3810,7 @@
       </c>
       <c r="C23" s="77">
         <f>PhanCong!F24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3802,7 +3822,7 @@
       </c>
       <c r="C24" s="77">
         <f>PhanCong!F25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4138,7 +4158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2.8</v>
       </c>

--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LEARN\NAM3_HK2\PTUDWEB\PTUDW-CNTN2014-Nhom10\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PTUDW-CNTN2014-Nhom10\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,19 +1889,19 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="79">
         <f>SUM(Table2[1412170])</f>
-        <v>4.1499999999999995</v>
+        <v>5.1499999999999986</v>
       </c>
       <c r="D2" s="79">
         <f>SUM(Table2[1412209])/20*8</f>
-        <v>1.7399999999999998</v>
+        <v>2.94</v>
       </c>
       <c r="E2" s="79">
         <f>SUM(Table2[1412661])/20*8</f>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="F2" s="80">
         <f>SUM(Table2[% hoàn tất])/20*8</f>
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -2061,11 +2061,13 @@
         <v>51</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="50">
+        <v>1</v>
+      </c>
       <c r="E11" s="50"/>
       <c r="F11" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,11 +2078,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
       <c r="E12" s="50"/>
       <c r="F12" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,11 +2137,13 @@
         <v>55</v>
       </c>
       <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="50">
+        <v>1</v>
+      </c>
       <c r="E16" s="50"/>
       <c r="F16" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,12 +2153,14 @@
       <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="50">
+        <v>1</v>
+      </c>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,10 +2187,12 @@
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="E19" s="50">
+        <v>1</v>
+      </c>
       <c r="F19" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,7 +2704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -3559,7 +3569,7 @@
       </c>
       <c r="C1" s="82">
         <f>AVERAGE(Table1[% hoàn thành])</f>
-        <v>0.5714285714285714</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3660,7 +3670,7 @@
       </c>
       <c r="C10" s="77">
         <f>PhanCong!F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,7 +3682,7 @@
       </c>
       <c r="C11" s="77">
         <f>PhanCong!F12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,7 +3727,7 @@
       </c>
       <c r="C15" s="77">
         <f>PhanCong!F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,7 +3739,7 @@
       </c>
       <c r="C16" s="77">
         <f>PhanCong!F17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,7 +3763,7 @@
       </c>
       <c r="C18" s="77">
         <f>PhanCong!F19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PTUDW-CNTN2014-Nhom10\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LEARN\PTUDW-CNTN2014-Nhom10\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HuongDan" sheetId="8" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="MinhChung_1412170" sheetId="18" r:id="rId3"/>
     <sheet name="MinhChung_1412209" sheetId="19" r:id="rId4"/>
     <sheet name="MinhChung_1412661" sheetId="20" r:id="rId5"/>
-    <sheet name="TongHop_YeuCauChucNang" sheetId="4" r:id="rId6"/>
-    <sheet name="TongHop_YeuCauKyThuat" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="21" state="hidden" r:id="rId6"/>
+    <sheet name="TongHop_YeuCauChucNang" sheetId="4" r:id="rId7"/>
+    <sheet name="TongHop_YeuCauKyThuat" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
   <si>
     <t>Tech01</t>
   </si>
@@ -414,10 +415,6 @@
   </si>
   <si>
     <t>1412661</t>
-  </si>
-  <si>
-    <t>Số lần commit trên nhánh master: 31
-Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
   </si>
   <si>
     <t>Số lần commit trên nhánh master: 87
@@ -428,54 +425,124 @@
 Giao diện trang thông tin chi tiết sản phẩm.</t>
   </si>
   <si>
-    <t>Giao diện từng phần cho trang web includes (header, footer, sidebar, search).
-Giao diện trang chủ.</t>
-  </si>
-  <si>
     <t>Trang xử lý lỗi 404.
 Trang hiển thị kết quả tìm kiếm.</t>
   </si>
   <si>
+    <t>Routing : "*"</t>
+  </si>
+  <si>
+    <t>API Like, share thông tin sản phẩm qua Facebook</t>
+  </si>
+  <si>
+    <t>API Like, share thông tin sản phẩm qua Google Plus.</t>
+  </si>
+  <si>
+    <t>API Like, share thông tin sản phẩm qua Twitter.</t>
+  </si>
+  <si>
+    <t>Đọc và hiển thị danh sách sản phẩm mới và sản phẩm khuyến mãi cho trang chủ.</t>
+  </si>
+  <si>
+    <t>Xử lý lỗi ngoại lệ 404.</t>
+  </si>
+  <si>
+    <t>Số lần commit trên nhánh master: 74
+Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
+  </si>
+  <si>
     <t>Routing danh sách sản phẩm theo danh mục: "/category/:slug"
-Routing thông tin chi tiết sản phẩm: "/product/:slug"</t>
+Routing thông tin chi tiết sản phẩm: "/product/:slug"
+Routing trang chủ trang admin: "/admin"
+Routing trang chủ trang quản lý sản phẩm: "/admin/products"
+Routing trang chủ trang quản lý nhóm sản phẩm: "/admin/group"</t>
+  </si>
+  <si>
+    <t>Dịch vụ thanh toán trực tuyến Paypal</t>
+  </si>
+  <si>
+    <t>Thêm xóa sửa nhóm sản phẩm</t>
+  </si>
+  <si>
+    <t>Dùng session lưu trạng thái thêm/sửa nhóm sản phẩm</t>
+  </si>
+  <si>
+    <t>Gửi email quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Phân quyền tài khoản (customer, seller, admin)</t>
+  </si>
+  <si>
+    <t>Xử lý lỗi 404</t>
+  </si>
+  <si>
+    <t>Kiểm tra dữ liệu khi thêm/sửa nhóm sản phẩm</t>
+  </si>
+  <si>
+    <t>Upload hình ảnh</t>
+  </si>
+  <si>
+    <t>Dùng passport để xác thực thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Số lần commit trên nhánh master: 111
+Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
+  </si>
+  <si>
+    <t>Giao diện từng phần cho trang web includes (header, footer, sidebar, search).
+Giao diện trang chủ.
+Giao diện quản lý giỏ hàng
+Giao diện thanh toán trực tuyến</t>
   </si>
   <si>
     <t>Routing trang chủ: "/"
-Routing tìm kiếm: "/search"</t>
-  </si>
-  <si>
-    <t>Routing : "*"</t>
-  </si>
-  <si>
-    <t>API Like, share thông tin sản phẩm qua Facebook</t>
-  </si>
-  <si>
-    <t>API Like, share thông tin sản phẩm qua Google Plus.</t>
-  </si>
-  <si>
-    <t>API Like, share thông tin sản phẩm qua Twitter.</t>
+Routing tìm kiếm: "/search"
+Routing quản lý sản phẩm : "/admin/products"
+Routing quản lý đơn hàng : "/admin/bills"
+Routing thống kê : "/admin/statistic"</t>
+  </si>
+  <si>
+    <t>Xử lý lỗi ngoại lệ : 404</t>
+  </si>
+  <si>
+    <t>Kiểm tra dữ liệu nhập vào khi thêm/sửa sản phẩm
+Kiểm tra dữ liệu nhập vào khi đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Dùng session lưu trạng thái thêm/sửa sản phẩm</t>
+  </si>
+  <si>
+    <t>Upload hình ảnh sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">
 Đọc và hiển thị danh sách sản phẩm theo danh mục sản phẩm.
-Đọc và hiển thị thông tin chi tiết sản phẩm.</t>
-  </si>
-  <si>
-    <t>Tìm kiếm sản phẩm theo danh mục hay theo giá sản phẩm</t>
+Đọc và hiển thị thông tin chi tiết sản phẩm.
+Đọc và hiển thị danh sách sản phẩm (theo còn hàng, hết hàng, …) ở trang admin.
+Đọc và hiển thị danh sách nhóm sản phẩm</t>
   </si>
   <si>
     <t>Đọc và hiển thị danh sách danh mục sản phẩm (Categories).
-Đọc tên danh mục sản phẩm.</t>
-  </si>
-  <si>
-    <t>Đọc và hiển thị danh sách sản phẩm mới và sản phẩm khuyến mãi cho trang chủ.</t>
-  </si>
-  <si>
-    <t>Xử lý lỗi ngoại lệ 404.</t>
-  </si>
-  <si>
-    <t>Số lần commit trên nhánh master: 32
-Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
+Đọc tên danh mục sản phẩm.
+Đọc và hiển thị danh sách đơn hàng, danh sách tài khoản</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm còn hàng, hết hàng.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm theo danh mục hay theo giá sản phẩm.
+Tìm kiếm đơn hàng (đã giao hàng?, đã thanh toán?, đã hoàn tất?)</t>
+  </si>
+  <si>
+    <t>Thêm/xóa/sửa sản phẩm
+Thêm/xóa/sửa đơn hàng</t>
+  </si>
+  <si>
+    <t>Phân trang danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Sắp xếp theo ngày thêm giảm dần ở trang quản lý nhóm sản phẩm
+Phân trang trang quản lý nhóm sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1657,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,19 +1956,19 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="79">
         <f>SUM(Table2[1412170])</f>
-        <v>5.1499999999999986</v>
+        <v>4.6499999999999986</v>
       </c>
       <c r="D2" s="79">
         <f>SUM(Table2[1412209])/20*8</f>
-        <v>2.94</v>
+        <v>3.54</v>
       </c>
       <c r="E2" s="79">
         <f>SUM(Table2[1412661])/20*8</f>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="F2" s="80">
         <f>SUM(Table2[% hoàn tất])/20*8</f>
-        <v>6.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -2095,11 +2162,13 @@
         <v>52</v>
       </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
       <c r="E13" s="50"/>
       <c r="F13" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,10 +2180,12 @@
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="E14" s="50">
+        <v>1</v>
+      </c>
       <c r="F14" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,9 +2225,11 @@
         <v>54</v>
       </c>
       <c r="C17" s="50">
-        <v>1</v>
-      </c>
-      <c r="D17" s="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="50"/>
       <c r="F17" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
@@ -2172,10 +2245,12 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="E18" s="50">
+        <v>1</v>
+      </c>
       <c r="F18" s="24">
         <f>SUM(Table2[[#This Row],[1412170]:[1412661]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2510,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2.2000000000000002</v>
       </c>
@@ -2525,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2540,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2555,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2600,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2615,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2630,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,7 +2719,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="70"/>
     </row>
-    <row r="17" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>3.1</v>
       </c>
@@ -2656,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2671,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2686,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>3.4</v>
       </c>
@@ -2701,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2727,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2742,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2784,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2877,7 +2952,7 @@
       <c r="D6" s="63"/>
       <c r="E6" s="69"/>
     </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2.1</v>
       </c>
@@ -2889,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2.2000000000000002</v>
       </c>
@@ -2904,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2919,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2979,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2994,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3009,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3023,7 +3098,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="70"/>
     </row>
-    <row r="17" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>3.1</v>
       </c>
@@ -3035,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3050,10 +3125,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>3.3</v>
       </c>
@@ -3065,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3080,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3106,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3121,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3165,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3285,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3416,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3487,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3544,12 +3619,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3569,7 +3658,7 @@
       </c>
       <c r="C1" s="82">
         <f>AVERAGE(Table1[% hoàn thành])</f>
-        <v>0.80952380952380953</v>
+        <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,7 +3783,7 @@
       </c>
       <c r="C12" s="77">
         <f>PhanCong!F13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,7 +3795,7 @@
       </c>
       <c r="C13" s="77">
         <f>PhanCong!F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3751,7 +3840,7 @@
       </c>
       <c r="C17" s="77">
         <f>PhanCong!F18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,12 +3978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final-Project/10_1412170_1412209_1412661.xlsx
+++ b/Final-Project/10_1412170_1412209_1412661.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HuongDan" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="164">
   <si>
     <t>Tech01</t>
   </si>
@@ -415,10 +415,6 @@
   </si>
   <si>
     <t>1412661</t>
-  </si>
-  <si>
-    <t>Số lần commit trên nhánh master: 87
-Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
   </si>
   <si>
     <t>Hiển thị danh sách sản phẩm theo danh mục sản phẩm.
@@ -439,9 +435,6 @@
   </si>
   <si>
     <t>API Like, share thông tin sản phẩm qua Twitter.</t>
-  </si>
-  <si>
-    <t>Đọc và hiển thị danh sách sản phẩm mới và sản phẩm khuyến mãi cho trang chủ.</t>
   </si>
   <si>
     <t>Xử lý lỗi ngoại lệ 404.</t>
@@ -543,6 +536,26 @@
   <si>
     <t>Sắp xếp theo ngày thêm giảm dần ở trang quản lý nhóm sản phẩm
 Phân trang trang quản lý nhóm sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm/ Sửa tài khoản</t>
+  </si>
+  <si>
+    <t>Upload hình ảnh tài khoản</t>
+  </si>
+  <si>
+    <t>Đọc và hiển thị danh sách sản phẩm mới và sản phẩm khuyến mãi cho trang chủ.
+Đọc và hiển thị danh sách tài khoản</t>
+  </si>
+  <si>
+    <t>Thêm/Xóa/Sửa tài khoản</t>
+  </si>
+  <si>
+    <t>Số lần commit trên nhánh master: 92
+Link: https://github.com/ttbhanh/PTUDW-CNTN2014-Nhom10/graphs/contributors</t>
+  </si>
+  <si>
+    <t>Tìm kiếm tài khoản (admin, customer, seller)</t>
   </si>
 </sst>
 </file>
@@ -2480,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2600,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2615,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2630,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2645,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2660,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2675,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2690,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2705,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2731,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2746,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2776,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2817,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2859,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2979,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2994,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3009,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3024,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3039,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3054,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3069,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3084,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3125,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3140,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3181,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3196,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3240,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,7 +3280,7 @@
       </c>
       <c r="D1" s="48">
         <f>SUM(D4:D25)/17*2</f>
-        <v>2</v>
+        <v>1.7647058823529411</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3360,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3375,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3420,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3432,11 +3445,9 @@
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="62">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
@@ -3450,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3465,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3479,7 +3490,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="70"/>
     </row>
-    <row r="17" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>3.1</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3506,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3521,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3533,13 +3544,11 @@
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="62">
-        <v>1</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -3638,7 +3647,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4257,7 +4266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2.8</v>
       </c>
